--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/move_on/django/projects/myproject/myproject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB0F924-C517-FB4A-84F6-B366AAD1AED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5F00D7-25B7-1947-BF4F-D1538893556F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15260" xr2:uid="{7C32E224-B337-9C4A-9481-E0C8E90A0180}"/>
+    <workbookView xWindow="1180" yWindow="1440" windowWidth="27240" windowHeight="15260" xr2:uid="{7C32E224-B337-9C4A-9481-E0C8E90A0180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>RH e-mail</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Charles</t>
   </si>
   <si>
-    <t>Hailey</t>
-  </si>
-  <si>
     <t>Steven</t>
   </si>
   <si>
@@ -133,6 +130,25 @@
   </si>
   <si>
     <t>91 44 24545411</t>
+  </si>
+  <si>
+    <t>sakthi@yahoo.com</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RH Address 5, London
+</t>
+  </si>
+  <si>
+    <t>91 44 24545415</t>
+  </si>
+  <si>
+    <t>91 44 245454166</t>
+  </si>
+  <si>
+    <t>Hailer</t>
   </si>
 </sst>
 </file>
@@ -559,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDFB5EE-5C45-8C4A-B237-B80CAD9144AA}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,7 +614,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -607,7 +623,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>8</v>
@@ -618,10 +634,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -641,10 +657,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -664,22 +680,45 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -690,6 +729,8 @@
     <hyperlink ref="D4" r:id="rId4" xr:uid="{D5C3CDD9-F837-2949-A759-7205E5F1740F}"/>
     <hyperlink ref="A5" r:id="rId5" xr:uid="{006492E8-1D98-D843-B8F0-2EAAF4877274}"/>
     <hyperlink ref="D5" r:id="rId6" xr:uid="{51735836-1634-E545-93FD-37B54383B4A1}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{37773912-0043-3043-8097-41995019468D}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{A2EECE9F-BD90-9749-BAFA-D03A00CB1A6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
